--- a/data/RefCampsUpdate.xlsx
+++ b/data/RefCampsUpdate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leanne\OneDrive\GEOG 575\Unit2\leaflet-lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leanne\OneDrive\GEOG 575\Unit2\leaflet-lab\leaflet-lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="1200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="1200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2016'!$A$1:$X$966</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$C$1:$C$1036</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -3856,8 +3856,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U57" sqref="U57:V57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4412,7 +4412,7 @@
         <v>42674.55228009259</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>507</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>509</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="27" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>512</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="28" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>515</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="57" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>517</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="70" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>520</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>42674.641342592593</v>
       </c>
     </row>
-    <row r="119" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
         <v>528</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="s">
         <v>533</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>42783.697743055556</v>
       </c>
     </row>
-    <row r="176" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="s">
         <v>535</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="186" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
         <v>504</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="199" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="s">
         <v>539</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="208" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="s">
         <v>548</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="s">
         <v>552</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B211" s="3" t="s">
         <v>554</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="255" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B255" s="3" t="s">
         <v>558</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="292" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B292" s="3" t="s">
         <v>567</v>
       </c>
@@ -22058,7 +22058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="448" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B448" s="3" t="s">
         <v>78</v>
       </c>
@@ -22138,7 +22138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="452" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B452" s="3" t="s">
         <v>86</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="457" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B457" s="3" t="s">
         <v>95</v>
       </c>
@@ -22278,7 +22278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="459" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B459" s="3" t="s">
         <v>98</v>
       </c>
@@ -22318,7 +22318,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="461" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B461" s="3" t="s">
         <v>101</v>
       </c>
@@ -22643,7 +22643,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B478" s="3" t="s">
         <v>121</v>
       </c>
@@ -22663,7 +22663,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B479" s="3" t="s">
         <v>122</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B480" s="3" t="s">
         <v>123</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="481" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B481" s="3" t="s">
         <v>124</v>
       </c>
@@ -22743,7 +22743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="483" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B483" s="3" t="s">
         <v>126</v>
       </c>
@@ -22763,7 +22763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="484" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B484" s="3" t="s">
         <v>127</v>
       </c>
@@ -22783,7 +22783,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="485" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B485" s="3" t="s">
         <v>128</v>
       </c>
@@ -22843,7 +22843,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="488" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B488" s="3" t="s">
         <v>131</v>
       </c>
@@ -22863,7 +22863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="489" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B489" s="3" t="s">
         <v>133</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="491" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B491" s="3" t="s">
         <v>135</v>
       </c>
@@ -22923,7 +22923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="492" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B492" s="3" t="s">
         <v>137</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="494" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="B494" s="3" t="s">
         <v>138</v>
       </c>
@@ -25327,7 +25327,7 @@
   <autoFilter ref="C1:C1036">
     <filterColumn colId="0">
       <filters>
-        <filter val="Chad"/>
+        <filter val="Jordan"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -25343,8 +25343,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X966"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25826,7 +25826,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>507</v>
       </c>
@@ -25858,7 +25858,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>509</v>
       </c>
@@ -26507,7 +26507,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="26" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>512</v>
       </c>
@@ -26610,7 +26610,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>515</v>
       </c>
@@ -26877,7 +26877,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>241</v>
       </c>
@@ -27331,7 +27331,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>520</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="70" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>517</v>
       </c>
@@ -29039,7 +29039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>204</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>42290.797094907408</v>
       </c>
     </row>
-    <row r="85" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>528</v>
       </c>
@@ -29654,7 +29654,7 @@
         <v>42286.843124999999</v>
       </c>
     </row>
-    <row r="98" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>504</v>
       </c>
@@ -30440,7 +30440,7 @@
         <v>42277.622175925928</v>
       </c>
     </row>
-    <row r="113" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>533</v>
       </c>
@@ -30575,7 +30575,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="116" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>535</v>
       </c>
@@ -30968,7 +30968,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>548</v>
       </c>
@@ -31000,7 +31000,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="126" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>539</v>
       </c>
@@ -31443,7 +31443,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="136" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>554</v>
       </c>
@@ -31648,7 +31648,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="141" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>552</v>
       </c>
@@ -32797,7 +32797,7 @@
         <v>42290.798796296294</v>
       </c>
     </row>
-    <row r="171" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>558</v>
       </c>
@@ -33841,7 +33841,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="195" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
         <v>567</v>
       </c>
@@ -34773,7 +34773,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="223" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
         <v>355</v>
       </c>
@@ -34922,7 +34922,7 @@
         <v>42277.701284722221</v>
       </c>
     </row>
-    <row r="227" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
         <v>44</v>
       </c>
@@ -35032,7 +35032,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="231" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>815</v>
       </c>
@@ -35697,7 +35697,7 @@
         <v>42277.679120370369</v>
       </c>
     </row>
-    <row r="250" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
         <v>216</v>
       </c>
@@ -38479,7 +38479,7 @@
         <v>42269.358587962961</v>
       </c>
     </row>
-    <row r="336" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C336" t="s">
         <v>384</v>
       </c>
@@ -38734,7 +38734,7 @@
         <v>42219.524270833332</v>
       </c>
     </row>
-    <row r="345" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C345" t="s">
         <v>65</v>
       </c>
@@ -39503,7 +39503,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="470" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C470" t="s">
         <v>44</v>
       </c>
@@ -39523,7 +39523,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="471" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C471" t="s">
         <v>849</v>
       </c>
@@ -39803,7 +39803,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="485" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C485" t="s">
         <v>93</v>
       </c>
@@ -40043,7 +40043,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="497" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C497" t="s">
         <v>129</v>
       </c>
@@ -40203,7 +40203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="505" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C505" t="s">
         <v>863</v>
       </c>
@@ -40223,7 +40223,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="506" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C506" t="s">
         <v>864</v>
       </c>
@@ -40383,7 +40383,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="514" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C514" t="s">
         <v>872</v>
       </c>
@@ -40543,7 +40543,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="522" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C522" t="s">
         <v>878</v>
       </c>
@@ -40768,7 +40768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="534" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C534" t="s">
         <v>113</v>
       </c>
@@ -40828,7 +40828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="537" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C537" t="s">
         <v>95</v>
       </c>
@@ -41028,7 +41028,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="547" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C547" t="s">
         <v>123</v>
       </c>
@@ -41048,7 +41048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="548" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C548" t="s">
         <v>891</v>
       </c>
@@ -41068,7 +41068,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="549" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C549" t="s">
         <v>892</v>
       </c>
@@ -41108,7 +41108,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="551" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C551" t="s">
         <v>894</v>
       </c>
@@ -41168,7 +41168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="554" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C554" t="s">
         <v>896</v>
       </c>
@@ -41328,7 +41328,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="562" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C562" t="s">
         <v>904</v>
       </c>
@@ -41428,7 +41428,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="567" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C567" t="s">
         <v>909</v>
       </c>
@@ -41508,7 +41508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="571" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C571" t="s">
         <v>912</v>
       </c>
@@ -41608,7 +41608,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="576" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C576" t="s">
         <v>917</v>
       </c>
@@ -41628,7 +41628,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="577" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C577" t="s">
         <v>918</v>
       </c>
@@ -41688,7 +41688,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="580" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C580" t="s">
         <v>921</v>
       </c>
@@ -41868,7 +41868,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="589" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C589" t="s">
         <v>930</v>
       </c>
@@ -41928,7 +41928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="592" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C592" t="s">
         <v>933</v>
       </c>
@@ -42188,7 +42188,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="605" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C605" t="s">
         <v>944</v>
       </c>
@@ -42228,7 +42228,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="607" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C607" t="s">
         <v>946</v>
       </c>
@@ -42288,7 +42288,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="610" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C610" t="s">
         <v>949</v>
       </c>
@@ -42308,7 +42308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="611" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C611" t="s">
         <v>950</v>
       </c>
@@ -42368,7 +42368,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="614" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C614" t="s">
         <v>953</v>
       </c>
@@ -42448,7 +42448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="618" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C618" t="s">
         <v>957</v>
       </c>
@@ -42488,7 +42488,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="620" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C620" t="s">
         <v>959</v>
       </c>
@@ -42628,7 +42628,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="627" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C627" t="s">
         <v>966</v>
       </c>
@@ -42808,7 +42808,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="636" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C636" t="s">
         <v>975</v>
       </c>
@@ -45350,47 +45350,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:X966">
-    <filterColumn colId="2">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Amboko"/>
-        <filter val="Bakombo"/>
-        <filter val="Bambasi"/>
-        <filter val="Belimbam"/>
-        <filter val="Bimbappe"/>
-        <filter val="Bombe Bakari"/>
-        <filter val="Bombe Chateau"/>
-        <filter val="Bombe Pana"/>
-        <filter val="Boulembe"/>
-        <filter val="Dembo"/>
-        <filter val="Gari-Gombo"/>
-        <filter val="Gihembe"/>
-        <filter val="Kambele"/>
-        <filter val="Kambioos Ref. Camp"/>
-        <filter val="Kombo Laka"/>
-        <filter val="Komboul"/>
-        <filter val="Lubumbashi"/>
-        <filter val="Mbaiboum"/>
-        <filter val="Mbale"/>
-        <filter val="Mbarang"/>
-        <filter val="Mbéra"/>
-        <filter val="Mbewe"/>
-        <filter val="MBile"/>
-        <filter val="Mbodo"/>
-        <filter val="Mboko (Rural Area)"/>
-        <filter val="Mbondo"/>
-        <filter val="Mboti (Outside of camp)"/>
-        <filter val="Mboti Refugee Camp"/>
-        <filter val="Mboula"/>
-        <filter val="Mombal"/>
-        <filter val="Nimba Communities"/>
-        <filter val="Nyambaka"/>
-        <filter val="Tambura"/>
-        <filter val="Wissambo"/>
-        <filter val="Woumbou"/>
-        <filter val="Yamba"/>
-        <filter val="Yarmbang"/>
-        <filter val="Zamboi"/>
-        <filter val="Zembe Borongo"/>
+        <filter val="Jordan"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -45406,8 +45368,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X622"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45991,7 +45953,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>70</v>
       </c>
@@ -46321,7 +46283,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>447</v>
       </c>
@@ -46494,7 +46456,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>408</v>
       </c>
@@ -46885,7 +46847,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>386</v>
       </c>
@@ -47640,7 +47602,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>414</v>
       </c>
@@ -48040,7 +48002,7 @@
         <v>41991.454502314817</v>
       </c>
     </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>400</v>
       </c>
@@ -48107,7 +48069,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>38</v>
       </c>
@@ -48186,7 +48148,7 @@
         <v>41780.62804398148</v>
       </c>
     </row>
-    <row r="60" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>428</v>
       </c>
@@ -48557,7 +48519,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>395</v>
       </c>
@@ -48843,7 +48805,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>416</v>
       </c>
@@ -49698,7 +49660,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>464</v>
       </c>
@@ -50927,7 +50889,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>456</v>
       </c>
@@ -51094,7 +51056,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>41</v>
       </c>
@@ -51577,7 +51539,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>388</v>
       </c>
@@ -52815,7 +52777,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="156" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>374</v>
       </c>
@@ -52850,7 +52812,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="157" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>367</v>
       </c>
@@ -53449,7 +53411,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="170" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>477</v>
       </c>
@@ -53552,7 +53514,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="172" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>480</v>
       </c>
@@ -53758,7 +53720,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="176" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>369</v>
       </c>
@@ -55053,7 +55015,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="201" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>351</v>
       </c>
@@ -55156,7 +55118,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="203" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
         <v>324</v>
       </c>
@@ -55259,7 +55221,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="205" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
         <v>355</v>
       </c>
@@ -56295,7 +56257,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>361</v>
       </c>
@@ -56466,7 +56428,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="225" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
         <v>390</v>
       </c>
@@ -56705,7 +56667,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="229" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>376</v>
       </c>
@@ -56808,7 +56770,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="231" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>484</v>
       </c>
@@ -57076,7 +57038,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="236" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
         <v>399</v>
       </c>
@@ -57459,7 +57421,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="243" spans="3:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
         <v>394</v>
       </c>
@@ -59650,7 +59612,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="416" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="C416" t="s">
         <v>38</v>
       </c>
@@ -60235,7 +60197,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="521" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C521" t="s">
         <v>392</v>
       </c>
@@ -60255,7 +60217,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="522" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C522" t="s">
         <v>397</v>
       </c>
@@ -60275,7 +60237,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="523" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C523" t="s">
         <v>398</v>
       </c>
@@ -61015,7 +60977,7 @@
   <autoFilter ref="A1:X622">
     <filterColumn colId="3">
       <filters>
-        <filter val="Uganda"/>
+        <filter val="South Sudan"/>
       </filters>
     </filterColumn>
   </autoFilter>
